--- a/WBMaster_Info/WBMaster_Organization.xlsx
+++ b/WBMaster_Info/WBMaster_Organization.xlsx
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Costruzione WBS OBI RACI - Company Organizational Chart</t>
+    <t xml:space="preserve">WBMaster+ - Company Organizational Chart</t>
   </si>
   <si>
     <t xml:space="preserve">Organizational Chart Templates</t>
@@ -625,9 +625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -636,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="444960" y="2114280"/>
-          <a:ext cx="2379960" cy="723240"/>
+          <a:off x="444960" y="2114640"/>
+          <a:ext cx="2379600" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -681,7 +681,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -745,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3425760" y="2114280"/>
-          <a:ext cx="2379960" cy="723240"/>
+          <a:off x="3425760" y="2114640"/>
+          <a:ext cx="2379600" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -801,7 +801,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -846,7 +846,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Leon Klein</a:t>
+            <a:t>Garonzi Marcello</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -865,9 +865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -876,8 +876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="735120" y="3200400"/>
-          <a:ext cx="2089800" cy="722880"/>
+          <a:off x="735480" y="3200400"/>
+          <a:ext cx="2089080" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -921,7 +921,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -994,7 +994,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>***@gmail.com</a:t>
+            <a:t>19251@studenti.marconiverona.edu.it</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1013,9 +1013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1025,7 +1025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3715920" y="3200400"/>
-          <a:ext cx="2089800" cy="722880"/>
+          <a:ext cx="2089440" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -1069,7 +1069,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1123,7 +1123,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Leon Klein</a:t>
+            <a:t>Garonzi Marcello</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1142,7 +1142,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>***@gmail.com</a:t>
+            <a:t>19067@studenti.marconiverona.edu.it</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1161,9 +1161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1172,8 +1172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3425760" y="847440"/>
-          <a:ext cx="2379960" cy="723240"/>
+          <a:off x="3425760" y="847800"/>
+          <a:ext cx="2379600" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -1217,7 +1217,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1262,7 +1262,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>Leon Klein</a:t>
+            <a:t>Garonzi Marcello</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1281,9 +1281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
+      <xdr:colOff>513360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1292,8 +1292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6406200" y="2114280"/>
-          <a:ext cx="2294280" cy="723240"/>
+          <a:off x="6406560" y="2114640"/>
+          <a:ext cx="2293920" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -1337,7 +1337,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1401,9 +1401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1412,8 +1412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696360" y="3200400"/>
-          <a:ext cx="2089800" cy="722880"/>
+          <a:off x="6696720" y="3200400"/>
+          <a:ext cx="2089440" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -1457,7 +1457,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="731520" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1530,7 +1530,7 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:rPr>
-            <a:t>***@gmail.com</a:t>
+            <a:t>19251@studenti.marconiverona.edu.it</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="it-IT" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1549,9 +1549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1560,8 +1560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3473280" y="895320"/>
-          <a:ext cx="636840" cy="656640"/>
+          <a:off x="3473280" y="895680"/>
+          <a:ext cx="636480" cy="656280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,11 +1596,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>216000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
@@ -1611,8 +1611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3644280" y="1150560"/>
-          <a:ext cx="295200" cy="300240"/>
+          <a:off x="3644280" y="1151280"/>
+          <a:ext cx="294840" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -1650,9 +1650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1661,8 +1661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3672720" y="990720"/>
-          <a:ext cx="237600" cy="216720"/>
+          <a:off x="3672720" y="991080"/>
+          <a:ext cx="237240" cy="216360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1700,9 +1700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1711,8 +1711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3473280" y="2162160"/>
-          <a:ext cx="636840" cy="651600"/>
+          <a:off x="3473280" y="2162520"/>
+          <a:ext cx="636480" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,11 +1747,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>216000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
@@ -1762,8 +1762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3645360" y="2414520"/>
-          <a:ext cx="293040" cy="300240"/>
+          <a:off x="3645000" y="2414880"/>
+          <a:ext cx="293040" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -1801,9 +1801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1812,8 +1812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3672720" y="2256840"/>
-          <a:ext cx="237600" cy="214920"/>
+          <a:off x="3672720" y="2257200"/>
+          <a:ext cx="237240" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1851,9 +1851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1862,8 +1862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444720" y="2162160"/>
-          <a:ext cx="637200" cy="651600"/>
+          <a:off x="6445080" y="2162520"/>
+          <a:ext cx="636480" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1898,11 +1898,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>207000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
@@ -1913,8 +1913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6616440" y="2414160"/>
-          <a:ext cx="293040" cy="300600"/>
+          <a:off x="6617160" y="2414880"/>
+          <a:ext cx="293040" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -1952,9 +1952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1963,8 +1963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6644160" y="2256840"/>
-          <a:ext cx="237960" cy="214920"/>
+          <a:off x="6644520" y="2257200"/>
+          <a:ext cx="237600" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2002,9 +2002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>356760</xdr:colOff>
+      <xdr:colOff>356400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2013,8 +2013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773640" y="3247920"/>
-          <a:ext cx="608400" cy="656640"/>
+          <a:off x="774000" y="3247920"/>
+          <a:ext cx="608040" cy="656280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2049,11 +2049,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>199440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
@@ -2064,8 +2064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="929880" y="3509640"/>
-          <a:ext cx="295200" cy="286920"/>
+          <a:off x="930960" y="3510360"/>
+          <a:ext cx="294480" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -2103,9 +2103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2114,8 +2114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="964080" y="3343320"/>
-          <a:ext cx="227160" cy="216720"/>
+          <a:off x="964440" y="3343320"/>
+          <a:ext cx="226800" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2153,9 +2153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>356400</xdr:colOff>
+      <xdr:colOff>356040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2165,7 +2165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3754080" y="3247920"/>
-          <a:ext cx="608400" cy="656640"/>
+          <a:ext cx="608040" cy="656280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,11 +2200,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>199080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
@@ -2215,8 +2215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3910320" y="3509640"/>
-          <a:ext cx="295200" cy="286920"/>
+          <a:off x="3911040" y="3510360"/>
+          <a:ext cx="294480" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -2254,9 +2254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2266,7 +2266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3944520" y="3343320"/>
-          <a:ext cx="227160" cy="216720"/>
+          <a:ext cx="226800" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2304,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>356760</xdr:colOff>
+      <xdr:colOff>356400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2315,8 +2315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734880" y="3247920"/>
-          <a:ext cx="608760" cy="656640"/>
+          <a:off x="6735240" y="3247920"/>
+          <a:ext cx="608040" cy="656280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2351,11 +2351,11 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>199800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
@@ -2366,8 +2366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6892200" y="3509640"/>
-          <a:ext cx="295200" cy="287280"/>
+          <a:off x="6892560" y="3510360"/>
+          <a:ext cx="294480" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -2405,9 +2405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2416,8 +2416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6925680" y="3343320"/>
-          <a:ext cx="227160" cy="216720"/>
+          <a:off x="6926040" y="3343320"/>
+          <a:ext cx="226440" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2449,7 +2449,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
@@ -2457,7 +2457,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>9720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2466,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2854800" y="352440"/>
-          <a:ext cx="542160" cy="2980080"/>
+          <a:off x="2855520" y="352800"/>
+          <a:ext cx="541440" cy="2979360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2500,15 +2500,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2517,8 +2517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16200000">
-          <a:off x="4343400" y="1842480"/>
-          <a:ext cx="542160" cy="360"/>
+          <a:off x="4343760" y="1842480"/>
+          <a:ext cx="541440" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2557,9 +2557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2568,8 +2568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16200000">
-          <a:off x="5834160" y="352800"/>
-          <a:ext cx="542160" cy="2979720"/>
+          <a:off x="5834880" y="352800"/>
+          <a:ext cx="541440" cy="2979720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2608,9 +2608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1838160</xdr:colOff>
+      <xdr:colOff>1837800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>475200</xdr:rowOff>
+      <xdr:rowOff>474840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2625,8 +2625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9619200" y="47520"/>
-          <a:ext cx="1884600" cy="427680"/>
+          <a:off x="9619560" y="47520"/>
+          <a:ext cx="1883520" cy="427320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2658,8 +2658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="494640" y="2187720"/>
-          <a:ext cx="636840" cy="651600"/>
+          <a:off x="494640" y="2188080"/>
+          <a:ext cx="636840" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,11 +2694,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>218160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
@@ -2709,7 +2709,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="666720" y="2440080"/>
+          <a:off x="666720" y="2440440"/>
           <a:ext cx="293040" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
@@ -2748,9 +2748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2759,8 +2759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="694080" y="2282400"/>
-          <a:ext cx="237600" cy="214920"/>
+          <a:off x="694080" y="2282760"/>
+          <a:ext cx="237600" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2803,9 +2803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2814,8 +2814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="415800" y="2119320"/>
-          <a:ext cx="1933200" cy="723240"/>
+          <a:off x="415800" y="2119680"/>
+          <a:ext cx="1932840" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst>
@@ -2859,7 +2859,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2923,9 +2923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2934,8 +2934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2948760" y="2119320"/>
-          <a:ext cx="1932840" cy="723240"/>
+          <a:off x="2949120" y="2119680"/>
+          <a:ext cx="1932120" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst>
@@ -2979,7 +2979,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3043,9 +3043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3055,7 +3055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="705960" y="3205440"/>
-          <a:ext cx="1643040" cy="722880"/>
+          <a:ext cx="1642680" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -3099,7 +3099,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3184,16 +3184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3202,8 +3202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="705600" y="3566880"/>
-          <a:ext cx="289440" cy="1085040"/>
+          <a:off x="995400" y="4651560"/>
+          <a:ext cx="289440" cy="1084680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3242,9 +3242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3253,8 +3253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="705960" y="4110120"/>
-          <a:ext cx="1643040" cy="723240"/>
+          <a:off x="705960" y="4110480"/>
+          <a:ext cx="1642680" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -3298,7 +3298,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3383,16 +3383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>179640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3401,7 +3401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="705600" y="4471920"/>
+          <a:off x="995400" y="6462360"/>
           <a:ext cx="289440" cy="1990080"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3441,9 +3441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3453,7 +3453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="705960" y="5015160"/>
-          <a:ext cx="1643040" cy="723240"/>
+          <a:ext cx="1642680" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -3497,7 +3497,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3582,16 +3582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3600,7 +3600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="705600" y="5376600"/>
+          <a:off x="995400" y="8271000"/>
           <a:ext cx="289440" cy="2894760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3640,9 +3640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3651,8 +3651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238920" y="3205440"/>
-          <a:ext cx="1642680" cy="722880"/>
+          <a:off x="3239280" y="3205440"/>
+          <a:ext cx="1641960" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -3696,7 +3696,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3781,16 +3781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3799,8 +3799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="3196080" y="3566880"/>
-          <a:ext cx="246960" cy="1085040"/>
+          <a:off x="3443040" y="4651560"/>
+          <a:ext cx="246600" cy="1084680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3839,9 +3839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3850,8 +3850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238920" y="4110120"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="3239280" y="4110480"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -3895,7 +3895,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3980,16 +3980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>179640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3998,8 +3998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="3196080" y="4471920"/>
-          <a:ext cx="246960" cy="1990080"/>
+          <a:off x="3443040" y="6462360"/>
+          <a:ext cx="246600" cy="1990080"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4038,9 +4038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4049,8 +4049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238920" y="5015160"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="3239280" y="5015160"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -4094,7 +4094,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4179,16 +4179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4197,8 +4197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="3196080" y="5376600"/>
-          <a:ext cx="246960" cy="2894760"/>
+          <a:off x="3443040" y="8271000"/>
+          <a:ext cx="246600" cy="2894760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4237,9 +4237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4248,8 +4248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2948760" y="852480"/>
-          <a:ext cx="1932840" cy="723240"/>
+          <a:off x="2949120" y="852840"/>
+          <a:ext cx="1932120" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4291,7 +4291,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4355,9 +4355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4366,8 +4366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5481720" y="2119320"/>
-          <a:ext cx="1932840" cy="723240"/>
+          <a:off x="5482080" y="2119680"/>
+          <a:ext cx="1932120" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst>
@@ -4411,7 +4411,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4475,9 +4475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4486,8 +4486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5771880" y="3205440"/>
-          <a:ext cx="1642680" cy="722880"/>
+          <a:off x="5772240" y="3205440"/>
+          <a:ext cx="1641960" cy="722520"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -4531,7 +4531,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4616,16 +4616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4634,8 +4634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="5771520" y="3566880"/>
-          <a:ext cx="289440" cy="1085040"/>
+          <a:off x="6060960" y="4651560"/>
+          <a:ext cx="289080" cy="1084680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4674,9 +4674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4685,8 +4685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5771880" y="4110120"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="5772240" y="4110480"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -4730,7 +4730,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4815,16 +4815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>179640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4833,8 +4833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="5771520" y="4471920"/>
-          <a:ext cx="289440" cy="1990080"/>
+          <a:off x="6060960" y="6462360"/>
+          <a:ext cx="289080" cy="1990080"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4873,9 +4873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4884,8 +4884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5771880" y="5015160"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="5772240" y="5015160"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -4929,7 +4929,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5014,16 +5014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5032,8 +5032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="5771520" y="5376600"/>
-          <a:ext cx="289440" cy="2894760"/>
+          <a:off x="6060960" y="8271000"/>
+          <a:ext cx="289080" cy="2894760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5066,7 +5066,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>334800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
@@ -5074,7 +5074,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>333720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5083,8 +5083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2325600" y="581400"/>
-          <a:ext cx="542160" cy="2532240"/>
+          <a:off x="2326320" y="581760"/>
+          <a:ext cx="541440" cy="2531880"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5117,15 +5117,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
+      <xdr:colOff>333000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5134,8 +5134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16200000">
-          <a:off x="3590280" y="1847520"/>
-          <a:ext cx="542160" cy="360"/>
+          <a:off x="3591000" y="1847520"/>
+          <a:ext cx="541440" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5174,9 +5174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
+      <xdr:colOff>333000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5186,7 +5186,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16200000">
           <a:off x="4858200" y="581760"/>
-          <a:ext cx="542160" cy="2532240"/>
+          <a:ext cx="541440" cy="2531880"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5225,9 +5225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5236,8 +5236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="705960" y="5919840"/>
-          <a:ext cx="1643040" cy="723240"/>
+          <a:off x="705960" y="5920200"/>
+          <a:ext cx="1642680" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -5281,7 +5281,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5373,9 +5373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5384,8 +5384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238920" y="5919840"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="3239280" y="5920200"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -5429,7 +5429,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5521,9 +5521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5532,8 +5532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5771880" y="5919840"/>
-          <a:ext cx="1642680" cy="723240"/>
+          <a:off x="5772240" y="5920200"/>
+          <a:ext cx="1641960" cy="722880"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst>
@@ -5577,7 +5577,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="45720" tIns="45000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5662,16 +5662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>179280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5680,8 +5680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="3196080" y="6281640"/>
-          <a:ext cx="246960" cy="3799800"/>
+          <a:off x="3443040" y="10081800"/>
+          <a:ext cx="246600" cy="3799440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5713,16 +5713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>179280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5731,8 +5731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="705600" y="6281640"/>
-          <a:ext cx="289440" cy="3799800"/>
+          <a:off x="995400" y="10081800"/>
+          <a:ext cx="289440" cy="3799440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5764,16 +5764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>179280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5782,8 +5782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1" rot="10800000">
-          <a:off x="5771520" y="6281640"/>
-          <a:ext cx="289440" cy="3799800"/>
+          <a:off x="6060960" y="10081800"/>
+          <a:ext cx="289080" cy="3799440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5822,9 +5822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1837800</xdr:colOff>
+      <xdr:colOff>1837440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>480600</xdr:rowOff>
+      <xdr:rowOff>480240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5839,8 +5839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8246520" y="47520"/>
-          <a:ext cx="1884960" cy="433080"/>
+          <a:off x="8246880" y="47520"/>
+          <a:ext cx="1883520" cy="432720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5866,9 +5866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>394560</xdr:rowOff>
+      <xdr:rowOff>394200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5884,7 +5884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4782240" y="57240"/>
-          <a:ext cx="1598400" cy="337320"/>
+          <a:ext cx="1598400" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5907,10 +5907,10 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="3.75"/>
@@ -6010,7 +6010,7 @@
     <hyperlink ref="U7" r:id="rId3" display="► More Project Management Templates"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -6031,7 +6031,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="3.75"/>
@@ -6112,7 +6112,7 @@
     <hyperlink ref="R7" r:id="rId3" display="► More Project Management Templates"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -6307,7 +6307,7 @@
     <hyperlink ref="B15" r:id="rId2" display="https://www.vertex42.com/licensing/EULA_companyuse.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
